--- a/Documentation/Prototype emotions input.xlsx
+++ b/Documentation/Prototype emotions input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fcortevargas/Thesis/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6FECC4-0515-FF46-B2D2-B4E7B80EA97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B284E67-B5D1-0F4E-9C81-4BDCC746867C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{182C99DB-6248-CD49-B7FB-2CC972604846}"/>
+    <workbookView xWindow="-38400" yWindow="4980" windowWidth="38400" windowHeight="21100" xr2:uid="{182C99DB-6248-CD49-B7FB-2CC972604846}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>wanderSlope</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>beepPhase</t>
-  </si>
-  <si>
-    <t>Parameter</t>
   </si>
   <si>
     <t>beepSlope</t>
@@ -163,15 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,423 +482,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8619FFB6-15BA-8C45-A7E0-600BB2AE502C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>700</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="1">
+        <v>100</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>100</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>20</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>900</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V4" s="1">
+        <v>100</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>0.8</v>
-      </c>
-      <c r="C5">
-        <v>0.8</v>
-      </c>
-      <c r="D5">
-        <v>0.8</v>
-      </c>
-      <c r="E5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
+      <c r="M5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="1">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-      <c r="C7">
+      <c r="Q5" s="1">
+        <v>200</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="T5" s="1">
         <v>0.2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="U5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V5" s="1">
+        <v>50</v>
+      </c>
+      <c r="W5" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.9</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>0.95</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>0.1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>700</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>900</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>0.9</v>
-      </c>
-      <c r="E19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
-        <v>0.2</v>
-      </c>
-      <c r="D21">
-        <v>0.2</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23">
-        <v>0.4</v>
-      </c>
-      <c r="C23">
-        <v>0.2</v>
-      </c>
-      <c r="D23">
-        <v>0.4</v>
-      </c>
-      <c r="E23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="X5" s="1">
         <v>5</v>
       </c>
     </row>
